--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.MAC.Final-1.2-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83069D3D-B4FB-4902-9947-77798067BC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCD5565-8EAE-420C-9BF1-2D005F75D9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{F0C558DC-41FA-4D24-B56F-91C50DFC624A}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{E46D645F-FBDD-49D9-9F35-74A569A549D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,464 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+  <si>
+    <t>First Generation</t>
+  </si>
+  <si>
+    <t>Second Generation</t>
+  </si>
+  <si>
+    <t>Third Generation</t>
+  </si>
+  <si>
+    <t>Fourth Generation</t>
+  </si>
+  <si>
+    <t>Fifth Generation</t>
+  </si>
+  <si>
+    <t>Sixth Generation</t>
+  </si>
+  <si>
+    <t>Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:10 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:20 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:10</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:100</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:30 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:8</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:12</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:400</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:40 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:105</t>
+  </si>
+  <si>
+    <t>ACE:SRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:70</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:300</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:50 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1300</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1300</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:300</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:1</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1</t>
+  </si>
+  <si>
+    <t>ACE:SRS:2</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:20</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:200</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:200</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:1</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:2</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:5</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:4</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:5</t>
+  </si>
+  <si>
+    <t>ACE:SRS:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:10 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:10</t>
+  </si>
+  <si>
+    <t>ACE:SRS:10</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:100 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:100</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1100</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1100</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:100</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3330 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1400</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1400</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:400</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:400</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3340</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3350 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:4000 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:4000</t>
+  </si>
+  <si>
+    <t>AID:SRS:1</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:30</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:500</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:500</t>
+  </si>
+  <si>
+    <t>AID:SRS:2</t>
+  </si>
+  <si>
+    <t>AID:SRS:10</t>
+  </si>
+  <si>
+    <t>AID:SRS:12</t>
+  </si>
+  <si>
+    <t>AID:SRS:20</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:105</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1200</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1200</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1111</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:0000</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:105</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:200</t>
+  </si>
+  <si>
+    <t>PUMPHTR:200</t>
+  </si>
+  <si>
+    <t>ACE:SRS:110</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:40</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:50</t>
+  </si>
+  <si>
+    <t>ACE:SRS:120</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:6</t>
+  </si>
+  <si>
+    <t>ACE:SRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:TBD:1</t>
+  </si>
+  <si>
+    <t>PUMP:DER:2</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:100</t>
+  </si>
+  <si>
+    <t>PUMP:UT:100</t>
+  </si>
+  <si>
+    <t>PUMP:INS:100</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:110</t>
+  </si>
+  <si>
+    <t>PUMP:UT:110</t>
+  </si>
+  <si>
+    <t>PUMP:INS:110</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:120</t>
+  </si>
+  <si>
+    <t>PUMP:UT:120</t>
+  </si>
+  <si>
+    <t>PUMP:INS:120</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:130</t>
+  </si>
+  <si>
+    <t>PUMP:UT:130</t>
+  </si>
+  <si>
+    <t>PUMP:INS:130</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:140</t>
+  </si>
+  <si>
+    <t>PUMP:UT:140</t>
+  </si>
+  <si>
+    <t>PUMP:INS:140</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:150</t>
+  </si>
+  <si>
+    <t>PUMP:UT:150</t>
+  </si>
+  <si>
+    <t>PUMP:INS:150</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:160</t>
+  </si>
+  <si>
+    <t>PUMP:UT:160</t>
+  </si>
+  <si>
+    <t>PUMP:INS:160</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:170</t>
+  </si>
+  <si>
+    <t>PUMP:UT:170</t>
+  </si>
+  <si>
+    <t>PUMP:INS:170</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:180</t>
+  </si>
+  <si>
+    <t>PUMP:UT:180</t>
+  </si>
+  <si>
+    <t>PUMP:INS:180</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:190</t>
+  </si>
+  <si>
+    <t>PUMP:UT:190</t>
+  </si>
+  <si>
+    <t>PUMP:INS:190</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:200</t>
+  </si>
+  <si>
+    <t>PUMP:UT:200</t>
+  </si>
+  <si>
+    <t>PUMP:INS:200</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:210</t>
+  </si>
+  <si>
+    <t>PUMP:UT:210</t>
+  </si>
+  <si>
+    <t>PUMP:INS:210</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:220</t>
+  </si>
+  <si>
+    <t>PUMP:UT:220</t>
+  </si>
+  <si>
+    <t>PUMP:INS:220</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +504,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF964B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +542,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +860,1589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FE0561-061E-417D-B9DC-3AB0C65945FA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D11CE24-17B9-49F7-A375-CAF340C81615}">
+  <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D127" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D135" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E136" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D142" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D145" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E147" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C148" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D150" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E151" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C152" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D153" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D154" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E155" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D157" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E159" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C163" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D164" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C168" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B179" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B199" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B205" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C206" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C207" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D208" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C210" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C211" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D212" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C214" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C215" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D216" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B217" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C218" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C219" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D220" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C222" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C223" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D224" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B236" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B240" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B251" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.MAC.Final-1.2-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/TARGEST.MAC.Final-1.2-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCD5565-8EAE-420C-9BF1-2D005F75D9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF91813-0DBD-EA43-BE4D-7AD3819DA0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{E46D645F-FBDD-49D9-9F35-74A569A549D3}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{045B8198-088F-0540-9245-7C17EC6F0C14}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
   <si>
     <t>First Generation</t>
   </si>
@@ -269,6 +269,15 @@
     <t>PUMP:HRS:3350</t>
   </si>
   <si>
+    <t>PUMP:HRD:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1500</t>
+  </si>
+  <si>
     <t>PUMP:HTP:500</t>
   </si>
   <si>
@@ -317,21 +326,6 @@
     <t>PUMP:HTR:1200</t>
   </si>
   <si>
-    <t>PUMP:TBV:1111</t>
-  </si>
-  <si>
-    <t>PUMP:HRD:3350</t>
-  </si>
-  <si>
-    <t>PUMP:HTP:1500</t>
-  </si>
-  <si>
-    <t>PUMP:HTR:1500</t>
-  </si>
-  <si>
-    <t>PUMP:HRD:0000</t>
-  </si>
-  <si>
     <t>PUMP:PRS:103</t>
   </si>
   <si>
@@ -341,7 +335,7 @@
     <t>PUMP:HTP:200</t>
   </si>
   <si>
-    <t>PUMPHTR:200</t>
+    <t>PUMP:HTR:200</t>
   </si>
   <si>
     <t>ACE:SRS:110</t>
@@ -497,7 +491,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -860,23 +854,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D11CE24-17B9-49F7-A375-CAF340C81615}">
-  <dimension ref="A1:G280"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCF43BA-BA28-7A4B-9BA3-67AB378DA170}">
+  <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,17 +893,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -918,37 +912,37 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -957,37 +951,37 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -996,37 +990,37 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1035,47 +1029,47 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1084,177 +1078,177 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1263,62 +1257,62 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1327,37 +1321,37 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1366,37 +1360,37 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1405,47 +1399,47 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1454,37 +1448,37 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E110" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1493,47 +1487,47 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -1542,57 +1536,57 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -1601,845 +1595,826 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E136" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C140" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D141" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D142" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E143" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C144" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D146" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E147" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C148" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D150" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E151" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C152" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D154" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E155" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C156" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D158" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E159" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B162" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C163" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D164" t="s">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E162" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B167" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C168" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D169" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B173" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C174" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D175" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B178" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B182" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B183" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C184" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B187" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C188" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D190" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B193" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D196" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B199" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C200" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B205" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C206" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C207" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D208" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B209" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C210" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C211" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D212" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B213" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C214" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C215" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D216" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B217" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C218" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C219" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D220" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B221" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C222" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C223" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D224" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B227" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C228" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B231" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A234" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B235" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A238" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B243" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A246" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B247" t="s">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A250" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B251" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A254" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B255" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A258" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B263" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B267" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A270" t="s">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B271" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A274" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B275" t="s">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A278" t="s">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B279" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B280" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.MAC.Final-1.2-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A3C355-5A9C-4318-95FA-32E5FDA4A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46994AA-D7F5-453A-A0F6-7F538FBF4F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{2043E52E-78C3-479B-B9F6-AB6A7918A178}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{36C3CD73-1933-4623-BF56-22711290ACA0}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +506,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,13 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF964B00"/>
+        <fgColor rgb="FF79CDCD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,11 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,42 +864,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CED970-0B4D-4698-812E-A37098FFB36B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262C392-065E-46A3-B73F-21AC162ACC05}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -913,15 +914,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -954,15 +955,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -995,15 +996,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
@@ -1036,15 +1037,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
@@ -1087,15 +1088,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
@@ -1268,15 +1269,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
@@ -1334,15 +1335,15 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
@@ -1375,15 +1376,15 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="A88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
@@ -1416,15 +1417,15 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
@@ -1467,15 +1468,15 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
@@ -1508,15 +1509,15 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
@@ -1559,15 +1560,15 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="A120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
@@ -1620,15 +1621,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="A131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
@@ -1656,15 +1657,15 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
@@ -1777,15 +1778,15 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
+      <c r="A160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
@@ -1808,15 +1809,15 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="A165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
@@ -1844,15 +1845,15 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="A171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
@@ -1875,15 +1876,15 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="A176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
@@ -1901,15 +1902,15 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A180" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="A180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
@@ -1932,15 +1933,15 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A185" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="A185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
@@ -1968,15 +1969,15 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A191" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
@@ -2004,15 +2005,15 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A197" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
+      <c r="A197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
@@ -2040,15 +2041,15 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+      <c r="A203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
@@ -2156,15 +2157,15 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A225" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
+      <c r="A225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
@@ -2182,15 +2183,15 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A229" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
+      <c r="A229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
@@ -2208,15 +2209,15 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A233" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
+      <c r="A233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
@@ -2234,15 +2235,15 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A237" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
+      <c r="A237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
@@ -2260,15 +2261,15 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A241" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
+      <c r="A241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
@@ -2286,15 +2287,15 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A245" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
+      <c r="A245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
@@ -2312,15 +2313,15 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A249" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
@@ -2338,15 +2339,15 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A253" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
@@ -2364,15 +2365,15 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A257" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
+      <c r="A257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
@@ -2390,15 +2391,15 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A261" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
@@ -2416,15 +2417,15 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A265" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
+      <c r="A265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
@@ -2442,15 +2443,15 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A269" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
+      <c r="A269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
@@ -2468,15 +2469,15 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A273" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
@@ -2494,15 +2495,15 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A277" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
+      <c r="A277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
@@ -2521,5 +2522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.MAC.Final-1.2-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46994AA-D7F5-453A-A0F6-7F538FBF4F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE01AF55-2474-4B70-8509-FB3C06710C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{36C3CD73-1933-4623-BF56-22711290ACA0}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{F8262674-FB93-4B00-8A70-EB0C45618F45}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -864,10 +864,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262C392-065E-46A3-B73F-21AC162ACC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17E4F6A-2DAA-4DA3-A3B3-1446E2AB0B1F}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
